--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T15:48:53+01:00</t>
+    <t>2025-03-26T13:23:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T13:23:18+01:00</t>
+    <t>2025-03-26T13:37:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T13:37:22+01:00</t>
+    <t>2025-04-15T09:45:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Profile for documenting Koerpergewicht observations within UTN.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1812,66 +1815,68 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1929,131 +1934,131 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -2065,16 +2070,16 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2124,27 +2129,27 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2152,10 +2157,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -2164,19 +2169,19 @@
         <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2226,13 +2231,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2243,10 +2248,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2254,10 +2259,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -2266,16 +2271,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2326,27 +2331,27 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2354,31 +2359,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2428,27 +2433,27 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2456,10 +2461,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2471,16 +2476,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2506,13 +2511,13 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -2530,38 +2535,38 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2573,16 +2578,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2632,38 +2637,38 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2675,16 +2680,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2734,13 +2739,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -2751,21 +2756,21 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2777,16 +2782,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2824,74 +2829,74 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2928,39 +2933,39 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2968,10 +2973,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2980,20 +2985,20 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3042,38 +3047,38 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3082,22 +3087,22 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3146,38 +3151,38 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -3186,19 +3191,19 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3248,27 +3253,27 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3276,34 +3281,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3328,13 +3333,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3352,27 +3357,27 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3380,13 +3385,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>20</v>
@@ -3395,19 +3400,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3432,65 +3437,65 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>20</v>
@@ -3499,19 +3504,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3521,7 +3526,7 @@
         <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>20</v>
@@ -3536,13 +3541,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3560,62 +3565,62 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3625,7 +3630,7 @@
         <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>20</v>
@@ -3640,13 +3645,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3664,27 +3669,27 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3692,10 +3697,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3707,13 +3712,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3764,13 +3769,13 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -3781,21 +3786,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3807,16 +3812,16 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3854,39 +3859,39 @@
         <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3894,10 +3899,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3906,22 +3911,22 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3958,74 +3963,74 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4050,11 +4055,11 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4072,27 +4077,27 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4100,10 +4105,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4115,13 +4120,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4172,13 +4177,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -4189,21 +4194,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4215,16 +4220,16 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4262,39 +4267,39 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4302,10 +4307,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4314,22 +4319,22 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4378,27 +4383,27 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4406,10 +4411,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4418,19 +4423,19 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4480,27 +4485,27 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4508,10 +4513,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4520,22 +4525,22 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4584,27 +4589,27 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4612,10 +4617,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4624,22 +4629,22 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4688,27 +4693,27 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4716,10 +4721,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4728,22 +4733,22 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4792,64 +4797,64 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4874,11 +4879,11 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -4896,27 +4901,27 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4924,10 +4929,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4939,13 +4944,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4996,13 +5001,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -5013,21 +5018,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5039,16 +5044,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5086,39 +5091,39 @@
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5126,10 +5131,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5138,22 +5143,22 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5202,27 +5207,27 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5230,10 +5235,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5242,19 +5247,19 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5304,27 +5309,27 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5332,10 +5337,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5344,22 +5349,22 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5408,27 +5413,27 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5436,10 +5441,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5448,22 +5453,22 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5512,27 +5517,27 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5540,10 +5545,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5552,22 +5557,22 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5616,40 +5621,40 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5658,22 +5663,22 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5683,7 +5688,7 @@
         <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>20</v>
@@ -5722,27 +5727,27 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5750,10 +5755,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5762,22 +5767,22 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -5826,27 +5831,27 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5854,34 +5859,34 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -5930,27 +5935,27 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5958,10 +5963,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -5970,19 +5975,19 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6032,62 +6037,62 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6136,62 +6141,62 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6240,27 +6245,27 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6268,10 +6273,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6280,19 +6285,19 @@
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6342,27 +6347,27 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6370,34 +6375,34 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6446,27 +6451,27 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6474,34 +6479,34 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6526,11 +6531,11 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6548,27 +6553,27 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6576,10 +6581,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6591,13 +6596,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6648,13 +6653,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -6665,21 +6670,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -6691,16 +6696,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6738,39 +6743,39 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6778,34 +6783,34 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -6854,27 +6859,27 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6882,40 +6887,40 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>20</v>
@@ -6936,13 +6941,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -6960,27 +6965,27 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6988,34 +6993,34 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7064,27 +7069,27 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7092,34 +7097,34 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7129,7 +7134,7 @@
         <v>20</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>20</v>
@@ -7168,27 +7173,27 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7196,34 +7201,34 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7248,11 +7253,11 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7270,27 +7275,27 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7298,13 +7303,13 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>20</v>
@@ -7313,19 +7318,19 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7350,13 +7355,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7374,38 +7379,38 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7417,19 +7422,19 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7454,13 +7459,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7478,27 +7483,27 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7506,10 +7511,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -7521,19 +7526,19 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -7582,27 +7587,27 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7610,10 +7615,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -7625,16 +7630,16 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7660,13 +7665,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -7684,27 +7689,27 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7712,13 +7717,13 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>20</v>
@@ -7727,19 +7732,19 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -7764,13 +7769,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -7788,27 +7793,27 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7816,10 +7821,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -7831,16 +7836,16 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7890,27 +7895,27 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7918,13 +7923,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>20</v>
@@ -7933,16 +7938,16 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7992,27 +7997,27 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8020,10 +8025,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -8035,19 +8040,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8096,27 +8101,27 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8124,10 +8129,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8139,13 +8144,13 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8196,13 +8201,13 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
@@ -8213,21 +8218,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
@@ -8239,16 +8244,16 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8286,74 +8291,74 @@
         <v>20</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -8402,27 +8407,27 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8430,10 +8435,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -8445,16 +8450,16 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8504,27 +8509,27 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8532,10 +8537,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -8547,16 +8552,16 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8606,27 +8611,27 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8634,10 +8639,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -8649,19 +8654,19 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -8686,13 +8691,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -8710,27 +8715,27 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8738,10 +8743,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -8753,19 +8758,19 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -8790,13 +8795,13 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -8814,27 +8819,27 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8842,10 +8847,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -8857,19 +8862,19 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -8918,27 +8923,27 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8946,10 +8951,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -8961,16 +8966,16 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9020,27 +9025,27 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9048,10 +9053,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
@@ -9060,19 +9065,19 @@
         <v>20</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9122,27 +9127,27 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9150,10 +9155,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -9162,19 +9167,19 @@
         <v>20</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9224,27 +9229,27 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9252,10 +9257,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>20</v>
@@ -9264,22 +9269,22 @@
         <v>20</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -9328,27 +9333,27 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9356,10 +9361,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>20</v>
@@ -9371,13 +9376,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9428,13 +9433,13 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>20</v>
@@ -9445,21 +9450,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>20</v>
@@ -9471,16 +9476,16 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9518,74 +9523,74 @@
         <v>20</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -9634,27 +9639,27 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9662,10 +9667,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
@@ -9674,22 +9679,22 @@
         <v>20</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -9714,13 +9719,13 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -9738,27 +9743,27 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9766,10 +9771,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>20</v>
@@ -9778,22 +9783,22 @@
         <v>20</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -9830,50 +9835,50 @@
         <v>20</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AC77" s="2"/>
       <c r="AD77" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>20</v>
@@ -9882,22 +9887,22 @@
         <v>20</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -9946,27 +9951,27 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9974,10 +9979,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>20</v>
@@ -9989,13 +9994,13 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10046,13 +10051,13 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>20</v>
@@ -10063,21 +10068,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>20</v>
@@ -10089,16 +10094,16 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10136,39 +10141,39 @@
         <v>20</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10176,10 +10181,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>20</v>
@@ -10188,22 +10193,22 @@
         <v>20</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>20</v>
@@ -10252,27 +10257,27 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10280,40 +10285,40 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q82" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>20</v>
@@ -10334,13 +10339,13 @@
         <v>20</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
@@ -10358,27 +10363,27 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10386,10 +10391,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>20</v>
@@ -10398,22 +10403,22 @@
         <v>20</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -10462,27 +10467,27 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10490,10 +10495,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>20</v>
@@ -10502,22 +10507,22 @@
         <v>20</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -10527,7 +10532,7 @@
         <v>20</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>20</v>
@@ -10566,27 +10571,27 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10594,10 +10599,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>20</v>
@@ -10606,22 +10611,22 @@
         <v>20</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -10670,27 +10675,27 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10698,10 +10703,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>20</v>
@@ -10713,19 +10718,19 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
@@ -10750,13 +10755,13 @@
         <v>20</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>20</v>
@@ -10774,38 +10779,38 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
@@ -10817,19 +10822,19 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -10854,13 +10859,13 @@
         <v>20</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>20</v>
@@ -10878,27 +10883,27 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10906,10 +10911,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>20</v>
@@ -10921,19 +10926,19 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -10982,13 +10987,13 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>20</v>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T09:45:28+02:00</t>
+    <t>2025-04-16T11:15:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T11:15:21+02:00</t>
+    <t>2025-04-16T13:27:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T13:27:07+02:00</t>
+    <t>2025-05-10T09:33:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1895,17 +1895,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.5859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1914,21 +1914,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.40625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.3828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-10T09:33:17+02:00</t>
+    <t>2025-05-12T15:27:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T15:27:13+02:00</t>
+    <t>2025-05-12T15:33:04+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T15:33:04+02:00</t>
+    <t>2025-05-14T14:21:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T14:21:32+02:00</t>
+    <t>2025-06-12T14:08:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T14:08:24+02:00</t>
+    <t>2025-06-13T14:46:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T14:46:42+02:00</t>
+    <t>2025-06-16T14:33:49+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://utn/consentresource.com/StructureDefinition/isik-koerpergewicht</t>
+    <t>https://www.utn-num.de/fhir/StructureDefinition/isik-koerpergewicht</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T14:33:49+02:00</t>
+    <t>2025-06-18T11:50:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>BIH-CEI</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>BIH-CEI (http://utn/consentresource.com)</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability (https://www.bihealth.org/de/forschung/arbeitsgruppen/interoperabilitaet/home)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/output/StructureDefinition-isik-koerpergewicht.xlsx
+++ b/output/StructureDefinition-isik-koerpergewicht.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T11:50:53+02:00</t>
+    <t>2025-06-18T14:35:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
